--- a/Data/Processing/2024-02-02/POLYPLEX.xlsx
+++ b/Data/Processing/2024-02-02/POLYPLEX.xlsx
@@ -2919,7 +2919,7 @@
         <v>1268.65</v>
       </c>
       <c r="D48">
-        <v>1226.99</v>
+        <v>1226.98</v>
       </c>
       <c r="E48">
         <v>1258.1</v>
@@ -4763,7 +4763,7 @@
         <v>45085</v>
       </c>
       <c r="B85">
-        <v>1319.88</v>
+        <v>1319.87</v>
       </c>
       <c r="C85">
         <v>1336.45</v>
@@ -4784,7 +4784,7 @@
         <v>39</v>
       </c>
       <c r="I85">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="J85">
         <v>1.24</v>
@@ -4793,10 +4793,10 @@
         <v>-0.45</v>
       </c>
       <c r="L85">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="M85">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="N85">
         <v>1.7</v>
